--- a/backend/src/main/resources/excel/test/mini_mini__mini_maillage.xlsx
+++ b/backend/src/main/resources/excel/test/mini_mini__mini_maillage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\kosc-v4\kosc\backend\src\main\resources\excel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E802AE2-C3F9-4DA8-9DAC-2BC774B0CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8996847-A0C7-424B-94A6-EF456529729C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C72200F5-7885-4EF6-9AFD-9C0C3DC4F03D}"/>
+    <workbookView minimized="1" xWindow="3936" yWindow="3744" windowWidth="7500" windowHeight="8964" xr2:uid="{C72200F5-7885-4EF6-9AFD-9C0C3DC4F03D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2816,7 +2816,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2923,6 +2923,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3241,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E4975-EC4A-47A0-8473-0B39D4D61F5E}">
   <dimension ref="A1:EP100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A80" sqref="A37:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
+      <selection activeCell="EA3" sqref="EA3:EA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3686,7 +3688,7 @@
         <v>140</v>
       </c>
       <c r="F2" s="13">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>141</v>
@@ -3978,7 +3980,7 @@
         <v>191</v>
       </c>
       <c r="F3" s="13">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>192</v>
@@ -4228,9 +4230,15 @@
         <v>188</v>
       </c>
       <c r="DX3" s="14"/>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
+      <c r="DY3" s="52">
+        <v>44918</v>
+      </c>
+      <c r="DZ3" s="52">
+        <v>44919</v>
+      </c>
+      <c r="EA3" s="53">
+        <v>44920</v>
+      </c>
       <c r="EB3" s="14"/>
       <c r="EC3" s="14"/>
       <c r="ED3" s="14"/>
@@ -4264,7 +4272,7 @@
         <v>191</v>
       </c>
       <c r="F4" s="13">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>216</v>
@@ -4588,9 +4596,15 @@
         <v>188</v>
       </c>
       <c r="DX4" s="14"/>
-      <c r="DY4" s="14"/>
-      <c r="DZ4" s="14"/>
-      <c r="EA4" s="14"/>
+      <c r="DY4" s="52">
+        <v>44918</v>
+      </c>
+      <c r="DZ4" s="52">
+        <v>44919</v>
+      </c>
+      <c r="EA4" s="53">
+        <v>44920</v>
+      </c>
       <c r="EB4" s="14"/>
       <c r="EC4" s="14"/>
       <c r="ED4" s="14"/>
@@ -4624,7 +4638,7 @@
         <v>260</v>
       </c>
       <c r="F5" s="13">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>141</v>
@@ -4888,9 +4902,15 @@
         <v>188</v>
       </c>
       <c r="DX5" s="14"/>
-      <c r="DY5" s="14"/>
-      <c r="DZ5" s="14"/>
-      <c r="EA5" s="14"/>
+      <c r="DY5" s="52">
+        <v>44918</v>
+      </c>
+      <c r="DZ5" s="52">
+        <v>44919</v>
+      </c>
+      <c r="EA5" s="53">
+        <v>44920</v>
+      </c>
       <c r="EB5" s="14"/>
       <c r="EC5" s="14"/>
       <c r="ED5" s="14"/>
@@ -4924,7 +4944,7 @@
         <v>191</v>
       </c>
       <c r="F6" s="13">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>296</v>
@@ -5180,9 +5200,15 @@
         <v>188</v>
       </c>
       <c r="DX6" s="14"/>
-      <c r="DY6" s="14"/>
-      <c r="DZ6" s="14"/>
-      <c r="EA6" s="14"/>
+      <c r="DY6" s="52">
+        <v>44918</v>
+      </c>
+      <c r="DZ6" s="52">
+        <v>44919</v>
+      </c>
+      <c r="EA6" s="53">
+        <v>44920</v>
+      </c>
       <c r="EB6" s="14"/>
       <c r="EC6" s="14" t="s">
         <v>315</v>
@@ -5218,7 +5244,7 @@
         <v>318</v>
       </c>
       <c r="F7" s="13">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>141</v>
@@ -5480,9 +5506,15 @@
         <v>188</v>
       </c>
       <c r="DX7" s="14"/>
-      <c r="DY7" s="14"/>
-      <c r="DZ7" s="14"/>
-      <c r="EA7" s="14"/>
+      <c r="DY7" s="52">
+        <v>44918</v>
+      </c>
+      <c r="DZ7" s="52">
+        <v>44919</v>
+      </c>
+      <c r="EA7" s="53">
+        <v>44920</v>
+      </c>
       <c r="EB7" s="14"/>
       <c r="EC7" s="14"/>
       <c r="ED7" s="14"/>
@@ -5516,7 +5548,7 @@
         <v>318</v>
       </c>
       <c r="F8" s="13">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>141</v>
@@ -5778,9 +5810,12 @@
         <v>188</v>
       </c>
       <c r="DX8" s="14"/>
-      <c r="DY8" s="14"/>
-      <c r="DZ8" s="14"/>
-      <c r="EA8" s="14"/>
+      <c r="DY8" s="52">
+        <v>44918</v>
+      </c>
+      <c r="DZ8" s="52">
+        <v>44919</v>
+      </c>
       <c r="EB8" s="14"/>
       <c r="EC8" s="14"/>
       <c r="ED8" s="14"/>
@@ -5814,7 +5849,7 @@
         <v>371</v>
       </c>
       <c r="F9" s="13">
-        <v>44872</v>
+        <v>44917</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>372</v>
@@ -6082,9 +6117,12 @@
         <v>188</v>
       </c>
       <c r="DX9" s="14"/>
-      <c r="DY9" s="14"/>
-      <c r="DZ9" s="14"/>
-      <c r="EA9" s="14"/>
+      <c r="DY9" s="52">
+        <v>44918</v>
+      </c>
+      <c r="DZ9" s="52">
+        <v>44919</v>
+      </c>
       <c r="EB9" s="14"/>
       <c r="EC9" s="14"/>
       <c r="ED9" s="14"/>
@@ -6118,7 +6156,7 @@
         <v>191</v>
       </c>
       <c r="F10" s="13">
-        <v>44872</v>
+        <v>44917</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>408</v>
@@ -6442,9 +6480,12 @@
         <v>188</v>
       </c>
       <c r="DX10" s="14"/>
-      <c r="DY10" s="14"/>
-      <c r="DZ10" s="14"/>
-      <c r="EA10" s="14"/>
+      <c r="DY10" s="52">
+        <v>44917</v>
+      </c>
+      <c r="DZ10" s="52">
+        <v>44919</v>
+      </c>
       <c r="EB10" s="14"/>
       <c r="EC10" s="14" t="s">
         <v>437</v>
@@ -6480,7 +6521,7 @@
         <v>140</v>
       </c>
       <c r="F11" s="13">
-        <v>44872</v>
+        <v>44917</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>440</v>
@@ -6736,9 +6777,12 @@
         <v>188</v>
       </c>
       <c r="DX11" s="14"/>
-      <c r="DY11" s="14"/>
-      <c r="DZ11" s="14"/>
-      <c r="EA11" s="14"/>
+      <c r="DY11" s="52">
+        <v>44917</v>
+      </c>
+      <c r="DZ11" s="52">
+        <v>44919</v>
+      </c>
       <c r="EB11" s="14"/>
       <c r="EC11" s="14"/>
       <c r="ED11" s="14"/>
@@ -6772,7 +6816,7 @@
         <v>191</v>
       </c>
       <c r="F12" s="13">
-        <v>44872</v>
+        <v>44917</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>459</v>
@@ -7022,9 +7066,12 @@
         <v>188</v>
       </c>
       <c r="DX12" s="14"/>
-      <c r="DY12" s="14"/>
-      <c r="DZ12" s="14"/>
-      <c r="EA12" s="14"/>
+      <c r="DY12" s="52">
+        <v>44917</v>
+      </c>
+      <c r="DZ12" s="52">
+        <v>44919</v>
+      </c>
       <c r="EB12" s="14"/>
       <c r="EC12" s="14"/>
       <c r="ED12" s="14"/>
@@ -7058,7 +7105,7 @@
         <v>371</v>
       </c>
       <c r="F13" s="13">
-        <v>44872</v>
+        <v>44917</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>408</v>
@@ -7322,9 +7369,12 @@
         <v>188</v>
       </c>
       <c r="DX13" s="14"/>
-      <c r="DY13" s="14"/>
-      <c r="DZ13" s="14"/>
-      <c r="EA13" s="14"/>
+      <c r="DY13" s="52">
+        <v>44917</v>
+      </c>
+      <c r="DZ13" s="52">
+        <v>44919</v>
+      </c>
       <c r="EB13" s="14"/>
       <c r="EC13" s="14"/>
       <c r="ED13" s="14"/>
@@ -7346,7 +7396,7 @@
         <v>260</v>
       </c>
       <c r="F14" s="13">
-        <v>44872</v>
+        <v>44917</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>506</v>
@@ -7606,9 +7656,10 @@
         <v>188</v>
       </c>
       <c r="DX14" s="14"/>
-      <c r="DY14" s="14"/>
+      <c r="DY14" s="52">
+        <v>44917</v>
+      </c>
       <c r="DZ14" s="14"/>
-      <c r="EA14" s="14"/>
       <c r="EB14" s="14"/>
       <c r="EC14" s="14"/>
       <c r="ED14" s="14"/>
@@ -7630,7 +7681,7 @@
         <v>371</v>
       </c>
       <c r="F15" s="13">
-        <v>44872</v>
+        <v>44917</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>535</v>
@@ -7894,7 +7945,9 @@
         <v>188</v>
       </c>
       <c r="DX15" s="14"/>
-      <c r="DY15" s="14"/>
+      <c r="DY15" s="52">
+        <v>44917</v>
+      </c>
       <c r="DZ15" s="14"/>
       <c r="EA15" s="14"/>
       <c r="EB15" s="14"/>
@@ -7918,7 +7971,7 @@
         <v>371</v>
       </c>
       <c r="F16" s="13">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>372</v>
@@ -8184,7 +8237,9 @@
         <v>188</v>
       </c>
       <c r="DX16" s="14"/>
-      <c r="DY16" s="14"/>
+      <c r="DY16" s="52">
+        <v>44917</v>
+      </c>
       <c r="DZ16" s="14"/>
       <c r="EA16" s="14"/>
       <c r="EB16" s="14"/>
@@ -8208,7 +8263,7 @@
         <v>371</v>
       </c>
       <c r="F17" s="13">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>596</v>
@@ -8470,7 +8525,9 @@
         <v>188</v>
       </c>
       <c r="DX17" s="14"/>
-      <c r="DY17" s="14"/>
+      <c r="DY17" s="52">
+        <v>44917</v>
+      </c>
       <c r="DZ17" s="14"/>
       <c r="EA17" s="14"/>
       <c r="EB17" s="14"/>
@@ -8494,7 +8551,7 @@
         <v>621</v>
       </c>
       <c r="F18" s="13">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>440</v>
@@ -8754,7 +8811,9 @@
         <v>188</v>
       </c>
       <c r="DX18" s="14"/>
-      <c r="DY18" s="14"/>
+      <c r="DY18" s="52">
+        <v>44917</v>
+      </c>
       <c r="DZ18" s="14"/>
       <c r="EA18" s="14"/>
       <c r="EB18" s="14"/>
@@ -8778,7 +8837,7 @@
         <v>191</v>
       </c>
       <c r="F19" s="13">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>440</v>
@@ -9030,7 +9089,9 @@
         <v>188</v>
       </c>
       <c r="DX19" s="14"/>
-      <c r="DY19" s="14"/>
+      <c r="DY19" s="52">
+        <v>44917</v>
+      </c>
       <c r="DZ19" s="14"/>
       <c r="EA19" s="14"/>
       <c r="EB19" s="14"/>
@@ -9054,7 +9115,7 @@
         <v>318</v>
       </c>
       <c r="F20" s="13">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>141</v>
@@ -9298,7 +9359,9 @@
         <v>188</v>
       </c>
       <c r="DX20" s="14"/>
-      <c r="DY20" s="14"/>
+      <c r="DY20" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ20" s="14"/>
       <c r="EA20" s="14"/>
       <c r="EB20" s="14"/>
@@ -9322,7 +9385,7 @@
         <v>621</v>
       </c>
       <c r="F21" s="13">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>372</v>
@@ -9584,7 +9647,9 @@
         <v>188</v>
       </c>
       <c r="DX21" s="14"/>
-      <c r="DY21" s="14"/>
+      <c r="DY21" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ21" s="14"/>
       <c r="EA21" s="14"/>
       <c r="EB21" s="14"/>
@@ -9601,8 +9666,8 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="16">
-        <v>44873</v>
+      <c r="F22" s="13">
+        <v>44888</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -9734,7 +9799,9 @@
       <c r="DV22" s="17"/>
       <c r="DW22" s="17"/>
       <c r="DX22" s="17"/>
-      <c r="DY22" s="17"/>
+      <c r="DY22" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ22" s="17"/>
       <c r="EA22" s="17"/>
       <c r="EB22" s="17"/>
@@ -9761,8 +9828,8 @@
       <c r="E23" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="16">
-        <v>44872</v>
+      <c r="F23" s="13">
+        <v>44888</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>709</v>
@@ -10024,7 +10091,9 @@
         <v>188</v>
       </c>
       <c r="DX23" s="17"/>
-      <c r="DY23" s="17"/>
+      <c r="DY23" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ23" s="17"/>
       <c r="EA23" s="17"/>
       <c r="EB23" s="17"/>
@@ -10045,8 +10114,8 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="16">
-        <v>44873</v>
+      <c r="F24" s="13">
+        <v>44888</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -10178,7 +10247,9 @@
       <c r="DV24" s="17"/>
       <c r="DW24" s="17"/>
       <c r="DX24" s="17"/>
-      <c r="DY24" s="17"/>
+      <c r="DY24" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ24" s="17"/>
       <c r="EA24" s="17"/>
       <c r="EB24" s="17"/>
@@ -10199,8 +10270,8 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="16">
-        <v>44873</v>
+      <c r="F25" s="13">
+        <v>44888</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -10332,7 +10403,9 @@
       <c r="DV25" s="17"/>
       <c r="DW25" s="17"/>
       <c r="DX25" s="17"/>
-      <c r="DY25" s="17"/>
+      <c r="DY25" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ25" s="17"/>
       <c r="EA25" s="17"/>
       <c r="EB25" s="17"/>
@@ -10359,8 +10432,8 @@
       <c r="E26" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="16">
-        <v>44872</v>
+      <c r="F26" s="13">
+        <v>44888</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>408</v>
@@ -10670,7 +10743,9 @@
         <v>188</v>
       </c>
       <c r="DX26" s="17"/>
-      <c r="DY26" s="17"/>
+      <c r="DY26" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ26" s="17"/>
       <c r="EA26" s="17"/>
       <c r="EB26" s="17"/>
@@ -10691,8 +10766,8 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="16">
-        <v>44873</v>
+      <c r="F27" s="13">
+        <v>44888</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -10824,7 +10899,9 @@
       <c r="DV27" s="17"/>
       <c r="DW27" s="17"/>
       <c r="DX27" s="17"/>
-      <c r="DY27" s="17"/>
+      <c r="DY27" s="52">
+        <v>44916</v>
+      </c>
       <c r="DZ27" s="17"/>
       <c r="EA27" s="17"/>
       <c r="EB27" s="17"/>
@@ -10851,8 +10928,8 @@
       <c r="E28" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="16">
-        <v>44872</v>
+      <c r="F28" s="13">
+        <v>44888</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>760</v>
@@ -11211,8 +11288,8 @@
       <c r="E29" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="16">
-        <v>44872</v>
+      <c r="F29" s="13">
+        <v>44888</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>296</v>
@@ -11500,7 +11577,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16">
-        <v>44873</v>
+        <v>44889</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -11666,7 +11743,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16">
-        <v>44873</v>
+        <v>44889</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -11838,7 +11915,7 @@
         <v>371</v>
       </c>
       <c r="F32" s="16">
-        <v>44873</v>
+        <v>44889</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>815</v>
@@ -12140,7 +12217,7 @@
         <v>191</v>
       </c>
       <c r="F33" s="16">
-        <v>44872</v>
+        <v>44889</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>815</v>
@@ -12432,7 +12509,7 @@
         <v>191</v>
       </c>
       <c r="F34" s="16">
-        <v>44872</v>
+        <v>44889</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>408</v>
@@ -12778,7 +12855,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16">
-        <v>44873</v>
+        <v>44889</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -12944,7 +13021,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16">
-        <v>44873</v>
+        <v>44889</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
